--- a/ctdpy/tests/etc/Leveransmall CTD.xlsx
+++ b/ctdpy/tests/etc/Leveransmall CTD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-30" windowWidth="18930" windowHeight="5850" tabRatio="840"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="18930" windowHeight="5790" tabRatio="840"/>
   </bookViews>
   <sheets>
     <sheet name="Förklaring" sheetId="7" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="407">
   <si>
     <t>SHIPC</t>
   </si>
@@ -1558,6 +1558,9 @@
   </si>
   <si>
     <t>CTDPRO</t>
+  </si>
+  <si>
+    <t>CTDprofile</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2482,7 @@
         <v>405</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2619,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
